--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\skuadcity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\fivem_skuadcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C515C-22AF-4CA9-8481-6AB6C9D5A80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E677D-4629-464A-A4CE-8833AB93F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
   </bookViews>
@@ -36,41 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>source</t>
   </si>
   <si>
-    <t>esx_ktackle</t>
-  </si>
-  <si>
-    <t>esx_duty</t>
-  </si>
-  <si>
-    <t>fuel station</t>
-  </si>
-  <si>
-    <t>esx_carwash</t>
-  </si>
-  <si>
     <t>problem</t>
   </si>
   <si>
-    <t>helicam</t>
-  </si>
-  <si>
-    <t>jsfour-idcard</t>
-  </si>
-  <si>
-    <t>esx_pedagang</t>
-  </si>
-  <si>
     <t>inventory</t>
   </si>
   <si>
-    <t>esx_documents</t>
-  </si>
-  <si>
     <t>lucky_hunting</t>
   </si>
   <si>
@@ -167,9 +143,6 @@
     <t>?</t>
   </si>
   <si>
-    <t>need partner</t>
-  </si>
-  <si>
     <t>esx_boat</t>
   </si>
   <si>
@@ -182,9 +155,6 @@
     <t>toko ilegal</t>
   </si>
   <si>
-    <t>license weapon berwaktu</t>
-  </si>
-  <si>
     <t>money processing</t>
   </si>
   <si>
@@ -239,31 +209,40 @@
     <t>NIGHTMERE HERE LETS START</t>
   </si>
   <si>
-    <t>config.drawdistance</t>
-  </si>
-  <si>
     <t>revive reward?</t>
   </si>
   <si>
     <t>notify blum diganti mythic_notify</t>
   </si>
   <si>
-    <t>noet yet</t>
-  </si>
-  <si>
     <t>not yet at all</t>
   </si>
   <si>
     <t>motel things</t>
   </si>
   <si>
-    <t>not yet</t>
-  </si>
-  <si>
-    <t>not tested</t>
-  </si>
-  <si>
     <t>need catatan tagihan</t>
+  </si>
+  <si>
+    <t>and exp connected</t>
+  </si>
+  <si>
+    <t>esx_petani</t>
+  </si>
+  <si>
+    <t>samsat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not yet at all </t>
+  </si>
+  <si>
+    <t>license berwaktu</t>
+  </si>
+  <si>
+    <t>ekonomi keuangan</t>
+  </si>
+  <si>
+    <t>belum sama skali</t>
   </si>
 </sst>
 </file>
@@ -618,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF73572-0C9B-406C-B1E8-A652E1BFC711}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:J19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,19 +622,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -663,308 +642,266 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="I15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="I19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\fivem_skuadcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491E677D-4629-464A-A4CE-8833AB93F0B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47BE790-DB84-407E-A831-0C1FC3EFCBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
   <si>
     <t>source</t>
   </si>
@@ -221,9 +221,6 @@
     <t>motel things</t>
   </si>
   <si>
-    <t>need catatan tagihan</t>
-  </si>
-  <si>
     <t>and exp connected</t>
   </si>
   <si>
@@ -243,6 +240,45 @@
   </si>
   <si>
     <t>belum sama skali</t>
+  </si>
+  <si>
+    <t>skd_HUD</t>
+  </si>
+  <si>
+    <t>improve idcard and menu radial button</t>
+  </si>
+  <si>
+    <t>qelle jail</t>
+  </si>
+  <si>
+    <t>would be better if can all in once in policejob</t>
+  </si>
+  <si>
+    <t>should be improve with ruskiarrest, ktackle and outlawalert</t>
+  </si>
+  <si>
+    <t>if lscostume all in mechanicjob whould be good</t>
+  </si>
+  <si>
+    <t>esx_license in policejob good tho</t>
+  </si>
+  <si>
+    <t>if inventory trunk and glove all in once at source esx_invenotryhud good</t>
+  </si>
+  <si>
+    <t>edenjail tho</t>
+  </si>
+  <si>
+    <t>can connected with bot to manage role</t>
+  </si>
+  <si>
+    <t>need catatan tagihan (SQL + column job name)</t>
+  </si>
+  <si>
+    <t>expired date</t>
+  </si>
+  <si>
+    <t>need sql validation</t>
   </si>
 </sst>
 </file>
@@ -597,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF73572-0C9B-406C-B1E8-A652E1BFC711}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
@@ -703,10 +739,10 @@
         <v>36</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>18</v>
@@ -718,12 +754,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
@@ -739,8 +772,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>3</v>
@@ -757,7 +793,7 @@
     </row>
     <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>33</v>
@@ -772,15 +808,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>45</v>
@@ -791,16 +827,13 @@
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>2</v>
@@ -809,99 +842,152 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="1" t="s">
+    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\fivem_skuadcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47BE790-DB84-407E-A831-0C1FC3EFCBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048130B-E7BE-49A8-99A6-4CE04F16B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>source</t>
   </si>
@@ -279,6 +279,39 @@
   </si>
   <si>
     <t>need sql validation</t>
+  </si>
+  <si>
+    <t>esx_duty</t>
+  </si>
+  <si>
+    <t>need adjust change role and stat notify in DC</t>
+  </si>
+  <si>
+    <t>/unjail</t>
+  </si>
+  <si>
+    <t>notify</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>error press y</t>
+  </si>
+  <si>
+    <t>garage/impond</t>
+  </si>
+  <si>
+    <t>es_extended server/commands</t>
+  </si>
+  <si>
+    <t>ESX.GetPlayers is good to get all players job</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIXED NOTIFY </t>
+  </si>
+  <si>
+    <t>next first [local]</t>
   </si>
 </sst>
 </file>
@@ -635,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF73572-0C9B-406C-B1E8-A652E1BFC711}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +751,12 @@
       <c r="D3" s="1" t="s">
         <v>78</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,10 +903,10 @@
         <v>52</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -880,8 +919,11 @@
       <c r="J12" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="M12" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -895,10 +937,10 @@
         <v>15</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -912,10 +954,10 @@
         <v>67</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
@@ -928,43 +970,70 @@
       <c r="J15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="M15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M16" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -972,17 +1041,17 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>

--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\fivem_skuadcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E048130B-E7BE-49A8-99A6-4CE04F16B141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01B7FB8-71FD-4FFA-A2E6-91DCB6B06170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t>source</t>
   </si>
@@ -65,15 +65,6 @@
     <t>beli shop dan isi barang dagangan</t>
   </si>
   <si>
-    <t>custom robbery</t>
-  </si>
-  <si>
-    <t>esx_identity</t>
-  </si>
-  <si>
-    <t>customize</t>
-  </si>
-  <si>
     <t>setor uang (nabung), atm tidak bisa setor tunai, pinjaman uang, penjualan rumah (lelang)</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
     <t>esx_ambulancejob</t>
   </si>
   <si>
-    <t>esx_billing</t>
-  </si>
-  <si>
     <t>exp</t>
   </si>
   <si>
@@ -161,18 +149,9 @@
     <t>esx_jobs</t>
   </si>
   <si>
-    <t>price and timing when to do jobs</t>
-  </si>
-  <si>
     <t>license all drive</t>
   </si>
   <si>
-    <t>esx_license</t>
-  </si>
-  <si>
-    <t>all in one</t>
-  </si>
-  <si>
     <t>esx_property</t>
   </si>
   <si>
@@ -203,24 +182,15 @@
     <t>unvisible text 3D world</t>
   </si>
   <si>
-    <t>esx_bankerjob(here)</t>
-  </si>
-  <si>
     <t>NIGHTMERE HERE LETS START</t>
   </si>
   <si>
     <t>revive reward?</t>
   </si>
   <si>
-    <t>notify blum diganti mythic_notify</t>
-  </si>
-  <si>
     <t>not yet at all</t>
   </si>
   <si>
-    <t>motel things</t>
-  </si>
-  <si>
     <t>and exp connected</t>
   </si>
   <si>
@@ -233,21 +203,6 @@
     <t xml:space="preserve">not yet at all </t>
   </si>
   <si>
-    <t>license berwaktu</t>
-  </si>
-  <si>
-    <t>ekonomi keuangan</t>
-  </si>
-  <si>
-    <t>belum sama skali</t>
-  </si>
-  <si>
-    <t>skd_HUD</t>
-  </si>
-  <si>
-    <t>improve idcard and menu radial button</t>
-  </si>
-  <si>
     <t>qelle jail</t>
   </si>
   <si>
@@ -263,55 +218,37 @@
     <t>esx_license in policejob good tho</t>
   </si>
   <si>
-    <t>if inventory trunk and glove all in once at source esx_invenotryhud good</t>
-  </si>
-  <si>
     <t>edenjail tho</t>
   </si>
   <si>
     <t>can connected with bot to manage role</t>
   </si>
   <si>
-    <t>need catatan tagihan (SQL + column job name)</t>
-  </si>
-  <si>
-    <t>expired date</t>
-  </si>
-  <si>
     <t>need sql validation</t>
   </si>
   <si>
-    <t>esx_duty</t>
-  </si>
-  <si>
-    <t>need adjust change role and stat notify in DC</t>
-  </si>
-  <si>
-    <t>/unjail</t>
-  </si>
-  <si>
-    <t>notify</t>
-  </si>
-  <si>
-    <t>trunk</t>
-  </si>
-  <si>
-    <t>error press y</t>
-  </si>
-  <si>
-    <t>garage/impond</t>
-  </si>
-  <si>
     <t>es_extended server/commands</t>
   </si>
   <si>
     <t>ESX.GetPlayers is good to get all players job</t>
   </si>
   <si>
-    <t xml:space="preserve">FIXED NOTIFY </t>
-  </si>
-  <si>
-    <t>next first [local]</t>
+    <t>and need to adjust jobslisting</t>
+  </si>
+  <si>
+    <t>esx_banker</t>
+  </si>
+  <si>
+    <t>dapat dimiliki perorangan</t>
+  </si>
+  <si>
+    <t>mengatur transaksi diatas</t>
+  </si>
+  <si>
+    <t>esx_bankerjob</t>
+  </si>
+  <si>
+    <t>perpanjang expired SIM</t>
   </si>
 </sst>
 </file>
@@ -666,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF73572-0C9B-406C-B1E8-A652E1BFC711}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,19 +628,19 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -738,325 +675,247 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>83</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\fivem_skuadcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01B7FB8-71FD-4FFA-A2E6-91DCB6B06170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D953FF6-9444-4C24-9272-CC1523948A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>source</t>
   </si>
@@ -122,12 +122,6 @@
     <t>cartel</t>
   </si>
   <si>
-    <t>not tested?</t>
-  </si>
-  <si>
-    <t>3dme</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t>esx_property</t>
   </si>
   <si>
-    <t>secondary jobs</t>
-  </si>
-  <si>
     <t>launcher</t>
   </si>
   <si>
@@ -249,6 +240,9 @@
   </si>
   <si>
     <t>perpanjang expired SIM</t>
+  </si>
+  <si>
+    <t>secondary jobs(IN HERE)</t>
   </si>
 </sst>
 </file>
@@ -605,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF73572-0C9B-406C-B1E8-A652E1BFC711}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,31 +674,31 @@
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
@@ -712,13 +706,13 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -733,160 +727,154 @@
         <v>15</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -894,7 +882,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -902,7 +890,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -910,12 +898,12 @@
         <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/TO DO.xlsx
+++ b/TO DO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\game\fivem_skuadcity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D953FF6-9444-4C24-9272-CC1523948A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A7F957-7BB6-4912-B55F-C257395F6192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
+    <workbookView xWindow="3810" yWindow="2025" windowWidth="16200" windowHeight="9795" xr2:uid="{E6144213-BAF2-4180-8948-CBF6C51846DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>source</t>
   </si>
@@ -143,9 +143,6 @@
     <t>esx_jobs</t>
   </si>
   <si>
-    <t>license all drive</t>
-  </si>
-  <si>
     <t>esx_property</t>
   </si>
   <si>
@@ -215,18 +212,6 @@
     <t>can connected with bot to manage role</t>
   </si>
   <si>
-    <t>need sql validation</t>
-  </si>
-  <si>
-    <t>es_extended server/commands</t>
-  </si>
-  <si>
-    <t>ESX.GetPlayers is good to get all players job</t>
-  </si>
-  <si>
-    <t>and need to adjust jobslisting</t>
-  </si>
-  <si>
     <t>esx_banker</t>
   </si>
   <si>
@@ -239,10 +224,7 @@
     <t>esx_bankerjob</t>
   </si>
   <si>
-    <t>perpanjang expired SIM</t>
-  </si>
-  <si>
-    <t>secondary jobs(IN HERE)</t>
+    <t>not fixed</t>
   </si>
 </sst>
 </file>
@@ -597,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF73572-0C9B-406C-B1E8-A652E1BFC711}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,30 +651,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>
@@ -701,18 +683,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>5</v>
@@ -735,16 +714,19 @@
     </row>
     <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>3</v>
@@ -766,31 +748,34 @@
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>7</v>
@@ -799,111 +784,83 @@
         <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
